--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,49 +540,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H2">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I2">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J2">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>56.3701066069701</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N2">
-        <v>56.3701066069701</v>
+        <v>0.290396</v>
       </c>
       <c r="O2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P2">
-        <v>0.2851589293462984</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q2">
-        <v>3508.240953031011</v>
+        <v>0.004428764863555555</v>
       </c>
       <c r="R2">
-        <v>3508.240953031011</v>
+        <v>0.039858883772</v>
       </c>
       <c r="S2">
-        <v>0.1036453061885835</v>
+        <v>9.543280249548901E-08</v>
       </c>
       <c r="T2">
-        <v>0.1036453061885835</v>
+        <v>9.543280249548898E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H3">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I3">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J3">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>79.5803306052761</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N3">
-        <v>79.5803306052761</v>
+        <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P3">
-        <v>0.4025722716944274</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q3">
-        <v>4952.748747341479</v>
+        <v>0.002032440652888889</v>
       </c>
       <c r="R3">
-        <v>4952.748747341479</v>
+        <v>0.018291965876</v>
       </c>
       <c r="S3">
-        <v>0.1463209532258127</v>
+        <v>4.379584678497235E-08</v>
       </c>
       <c r="T3">
-        <v>0.1463209532258127</v>
+        <v>4.379584678497233E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -658,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H4">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I4">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J4">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.3693758823782</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N4">
-        <v>60.3693758823782</v>
+        <v>182.872494</v>
       </c>
       <c r="O4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P4">
-        <v>0.3053899953028406</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q4">
-        <v>3757.138837010719</v>
+        <v>2.788947767662</v>
       </c>
       <c r="R4">
-        <v>3757.138837010719</v>
+        <v>25.10052990895799</v>
       </c>
       <c r="S4">
-        <v>0.1109985917069227</v>
+        <v>6.009736567225271E-05</v>
       </c>
       <c r="T4">
-        <v>0.1109985917069227</v>
+        <v>6.00973656722527E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>62.2358403096797</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H5">
-        <v>62.2358403096797</v>
+        <v>0.137257</v>
       </c>
       <c r="I5">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J5">
-        <v>0.3634650558766693</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35979924013071</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N5">
-        <v>1.35979924013071</v>
+        <v>246.670944</v>
       </c>
       <c r="O5">
-        <v>0.006878803656433702</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P5">
-        <v>0.006878803656433702</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q5">
-        <v>84.62824836199867</v>
+        <v>3.761923751178667</v>
       </c>
       <c r="R5">
-        <v>84.62824836199867</v>
+        <v>33.857313760608</v>
       </c>
       <c r="S5">
-        <v>0.002500204755350312</v>
+        <v>8.106344260984254E-05</v>
       </c>
       <c r="T5">
-        <v>0.002500204755350312</v>
+        <v>8.106344260984251E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>63.4532024071576</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H6">
-        <v>63.4532024071576</v>
+        <v>0.137257</v>
       </c>
       <c r="I6">
-        <v>0.3705746020895951</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J6">
-        <v>0.3705746020895951</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.3701066069701</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N6">
-        <v>56.3701066069701</v>
+        <v>190.187122</v>
       </c>
       <c r="O6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P6">
-        <v>0.2851589293462984</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q6">
-        <v>3576.863784245125</v>
+        <v>2.900501533817111</v>
       </c>
       <c r="R6">
-        <v>3576.863784245125</v>
+        <v>26.104513804354</v>
       </c>
       <c r="S6">
-        <v>0.1056726567747995</v>
+        <v>6.250117099068677E-05</v>
       </c>
       <c r="T6">
-        <v>0.1056726567747995</v>
+        <v>6.250117099068674E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>63.4532024071576</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H7">
-        <v>63.4532024071576</v>
+        <v>0.137257</v>
       </c>
       <c r="I7">
-        <v>0.3705746020895951</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="J7">
-        <v>0.3705746020895951</v>
+        <v>0.0002054062339532693</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.5803306052761</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N7">
-        <v>79.5803306052761</v>
+        <v>4.883993</v>
       </c>
       <c r="O7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P7">
-        <v>0.4025722716944274</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q7">
-        <v>5049.626825525103</v>
+        <v>0.07448469191122221</v>
       </c>
       <c r="R7">
-        <v>5049.626825525103</v>
+        <v>0.670362227201</v>
       </c>
       <c r="S7">
-        <v>0.1491830593954668</v>
+        <v>1.605026031206872E-06</v>
       </c>
       <c r="T7">
-        <v>0.1491830593954668</v>
+        <v>1.605026031206872E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H8">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I8">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J8">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>60.3693758823782</v>
+        <v>0.09679866666666666</v>
       </c>
       <c r="N8">
-        <v>60.3693758823782</v>
+        <v>0.290396</v>
       </c>
       <c r="O8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="P8">
-        <v>0.3053899953028406</v>
+        <v>0.0004646051906934836</v>
       </c>
       <c r="Q8">
-        <v>3830.630227058322</v>
+        <v>0.01223212484444444</v>
       </c>
       <c r="R8">
-        <v>3830.630227058322</v>
+        <v>0.1100891236</v>
       </c>
       <c r="S8">
-        <v>0.1131697759914935</v>
+        <v>2.635827347679163E-07</v>
       </c>
       <c r="T8">
-        <v>0.1131697759914935</v>
+        <v>2.635827347679162E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,258 +962,258 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>63.4532024071576</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H9">
-        <v>63.4532024071576</v>
+        <v>0.3791</v>
       </c>
       <c r="I9">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J9">
-        <v>0.3705746020895951</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35979924013071</v>
+        <v>0.04442266666666667</v>
       </c>
       <c r="N9">
-        <v>1.35979924013071</v>
+        <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="P9">
-        <v>0.006878803656433702</v>
+        <v>0.0002132157624531301</v>
       </c>
       <c r="Q9">
-        <v>86.28361641711304</v>
+        <v>0.005613544311111111</v>
       </c>
       <c r="R9">
-        <v>86.28361641711304</v>
+        <v>0.0505218988</v>
       </c>
       <c r="S9">
-        <v>0.002549109927835371</v>
+        <v>1.209629054706355E-07</v>
       </c>
       <c r="T9">
-        <v>0.002549109927835371</v>
+        <v>1.209629054706355E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>45.5401835964552</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H10">
-        <v>45.5401835964552</v>
+        <v>0.3791</v>
       </c>
       <c r="I10">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J10">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.3701066069701</v>
+        <v>60.95749799999999</v>
       </c>
       <c r="N10">
-        <v>56.3701066069701</v>
+        <v>182.872494</v>
       </c>
       <c r="O10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="P10">
-        <v>0.2851589293462984</v>
+        <v>0.2925781000683995</v>
       </c>
       <c r="Q10">
-        <v>2567.10500423317</v>
+        <v>7.702995830599998</v>
       </c>
       <c r="R10">
-        <v>2567.10500423317</v>
+        <v>69.32696247539999</v>
       </c>
       <c r="S10">
-        <v>0.07584096638291539</v>
+        <v>0.0001659872452869508</v>
       </c>
       <c r="T10">
-        <v>0.07584096638291539</v>
+        <v>0.0001659872452869507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>45.5401835964552</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H11">
-        <v>45.5401835964552</v>
+        <v>0.3791</v>
       </c>
       <c r="I11">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J11">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.5803306052761</v>
+        <v>82.22364800000001</v>
       </c>
       <c r="N11">
-        <v>79.5803306052761</v>
+        <v>246.670944</v>
       </c>
       <c r="O11">
-        <v>0.4025722716944274</v>
+        <v>0.3946493786955111</v>
       </c>
       <c r="P11">
-        <v>0.4025722716944274</v>
+        <v>0.394649378695511</v>
       </c>
       <c r="Q11">
-        <v>3624.102866430876</v>
+        <v>10.39032831893333</v>
       </c>
       <c r="R11">
-        <v>3624.102866430876</v>
+        <v>93.51295487040001</v>
       </c>
       <c r="S11">
-        <v>0.1070682590731479</v>
+        <v>0.0002238949641431133</v>
       </c>
       <c r="T11">
-        <v>0.1070682590731479</v>
+        <v>0.0002238949641431133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>45.5401835964552</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H12">
-        <v>45.5401835964552</v>
+        <v>0.3791</v>
       </c>
       <c r="I12">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J12">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.3693758823782</v>
+        <v>63.39570733333333</v>
       </c>
       <c r="N12">
-        <v>60.3693758823782</v>
+        <v>190.187122</v>
       </c>
       <c r="O12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="P12">
-        <v>0.3053899953028406</v>
+        <v>0.3042807892817216</v>
       </c>
       <c r="Q12">
-        <v>2749.232461286918</v>
+        <v>8.011104216688887</v>
       </c>
       <c r="R12">
-        <v>2749.232461286918</v>
+        <v>72.0999379502</v>
       </c>
       <c r="S12">
-        <v>0.08122162760442439</v>
+        <v>0.0001726264884309678</v>
       </c>
       <c r="T12">
-        <v>0.08122162760442439</v>
+        <v>0.0001726264884309678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1216,49 +1222,1537 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>45.5401835964552</v>
+        <v>0.1263666666666667</v>
       </c>
       <c r="H13">
-        <v>45.5401835964552</v>
+        <v>0.3791</v>
       </c>
       <c r="I13">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662692</v>
       </c>
       <c r="J13">
-        <v>0.2659603420337356</v>
+        <v>0.0005673262805662691</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35979924013071</v>
+        <v>1.627997666666667</v>
       </c>
       <c r="N13">
-        <v>1.35979924013071</v>
+        <v>4.883993</v>
       </c>
       <c r="O13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="P13">
-        <v>0.006878803656433702</v>
+        <v>0.007813911001221226</v>
       </c>
       <c r="Q13">
-        <v>61.92550704987281</v>
+        <v>0.2057246384777777</v>
       </c>
       <c r="R13">
-        <v>61.92550704987281</v>
+        <v>1.8515217463</v>
       </c>
       <c r="S13">
-        <v>0.001829488973248019</v>
+        <v>4.43303706499869E-06</v>
       </c>
       <c r="T13">
-        <v>0.001829488973248019</v>
+        <v>4.433037064998689E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>106.600598</v>
+      </c>
+      <c r="H14">
+        <v>319.801794</v>
+      </c>
+      <c r="I14">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J14">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.290396</v>
+      </c>
+      <c r="O14">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P14">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q14">
+        <v>10.31879575226933</v>
+      </c>
+      <c r="R14">
+        <v>92.86916177042399</v>
+      </c>
+      <c r="S14">
+        <v>0.0002223535516913896</v>
+      </c>
+      <c r="T14">
+        <v>0.0002223535516913895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>106.600598</v>
+      </c>
+      <c r="H15">
+        <v>319.801794</v>
+      </c>
+      <c r="I15">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J15">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.133268</v>
+      </c>
+      <c r="O15">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P15">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q15">
+        <v>4.735482831421333</v>
+      </c>
+      <c r="R15">
+        <v>42.61934548279199</v>
+      </c>
+      <c r="S15">
+        <v>0.0001020420843496746</v>
+      </c>
+      <c r="T15">
+        <v>0.0001020420843496746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>106.600598</v>
+      </c>
+      <c r="H16">
+        <v>319.801794</v>
+      </c>
+      <c r="I16">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J16">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N16">
+        <v>182.872494</v>
+      </c>
+      <c r="O16">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P16">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q16">
+        <v>6498.105739383803</v>
+      </c>
+      <c r="R16">
+        <v>58482.95165445423</v>
+      </c>
+      <c r="S16">
+        <v>0.1400237900920203</v>
+      </c>
+      <c r="T16">
+        <v>0.1400237900920203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>106.600598</v>
+      </c>
+      <c r="H17">
+        <v>319.801794</v>
+      </c>
+      <c r="I17">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J17">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N17">
+        <v>246.670944</v>
+      </c>
+      <c r="O17">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P17">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q17">
+        <v>8765.090046541505</v>
+      </c>
+      <c r="R17">
+        <v>78885.81041887353</v>
+      </c>
+      <c r="S17">
+        <v>0.1888736776590169</v>
+      </c>
+      <c r="T17">
+        <v>0.1888736776590169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>106.600598</v>
+      </c>
+      <c r="H18">
+        <v>319.801794</v>
+      </c>
+      <c r="I18">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J18">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N18">
+        <v>190.187122</v>
+      </c>
+      <c r="O18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P18">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q18">
+        <v>6758.020312366318</v>
+      </c>
+      <c r="R18">
+        <v>60822.18281129686</v>
+      </c>
+      <c r="S18">
+        <v>0.1456245336115636</v>
+      </c>
+      <c r="T18">
+        <v>0.1456245336115636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>106.600598</v>
+      </c>
+      <c r="H19">
+        <v>319.801794</v>
+      </c>
+      <c r="I19">
+        <v>0.4785860256091802</v>
+      </c>
+      <c r="J19">
+        <v>0.4785860256091801</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.883993</v>
+      </c>
+      <c r="O19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P19">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q19">
+        <v>173.5455248092713</v>
+      </c>
+      <c r="R19">
+        <v>1561.909723283442</v>
+      </c>
+      <c r="S19">
+        <v>0.003739628610538317</v>
+      </c>
+      <c r="T19">
+        <v>0.003739628610538316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>65.578509</v>
+      </c>
+      <c r="H20">
+        <v>196.735527</v>
+      </c>
+      <c r="I20">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J20">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.290396</v>
+      </c>
+      <c r="O20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P20">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q20">
+        <v>6.347912233187999</v>
+      </c>
+      <c r="R20">
+        <v>57.13121009869199</v>
+      </c>
+      <c r="S20">
+        <v>0.0001367873601494783</v>
+      </c>
+      <c r="T20">
+        <v>0.0001367873601494783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>65.578509</v>
+      </c>
+      <c r="H21">
+        <v>196.735527</v>
+      </c>
+      <c r="I21">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J21">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.133268</v>
+      </c>
+      <c r="O21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P21">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q21">
+        <v>2.913172245804</v>
+      </c>
+      <c r="R21">
+        <v>26.218550212236</v>
+      </c>
+      <c r="S21">
+        <v>6.277420457720037E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.277420457720035E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>65.578509</v>
+      </c>
+      <c r="H22">
+        <v>196.735527</v>
+      </c>
+      <c r="I22">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J22">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N22">
+        <v>182.872494</v>
+      </c>
+      <c r="O22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P22">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q22">
+        <v>3997.501831210481</v>
+      </c>
+      <c r="R22">
+        <v>35977.51648089434</v>
+      </c>
+      <c r="S22">
+        <v>0.08613977361331186</v>
+      </c>
+      <c r="T22">
+        <v>0.08613977361331185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>65.578509</v>
+      </c>
+      <c r="H23">
+        <v>196.735527</v>
+      </c>
+      <c r="I23">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J23">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N23">
+        <v>246.670944</v>
+      </c>
+      <c r="O23">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P23">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q23">
+        <v>5392.104240380832</v>
+      </c>
+      <c r="R23">
+        <v>48528.93816342749</v>
+      </c>
+      <c r="S23">
+        <v>0.1161912259650264</v>
+      </c>
+      <c r="T23">
+        <v>0.1161912259650264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>65.578509</v>
+      </c>
+      <c r="H24">
+        <v>196.735527</v>
+      </c>
+      <c r="I24">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J24">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N24">
+        <v>190.187122</v>
+      </c>
+      <c r="O24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P24">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q24">
+        <v>4157.395963920366</v>
+      </c>
+      <c r="R24">
+        <v>37416.56367528329</v>
+      </c>
+      <c r="S24">
+        <v>0.08958523654873611</v>
+      </c>
+      <c r="T24">
+        <v>0.08958523654873608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>65.578509</v>
+      </c>
+      <c r="H25">
+        <v>196.735527</v>
+      </c>
+      <c r="I25">
+        <v>0.2944163407759294</v>
+      </c>
+      <c r="J25">
+        <v>0.2944163407759293</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.883993</v>
+      </c>
+      <c r="O25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P25">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q25">
+        <v>106.761659635479</v>
+      </c>
+      <c r="R25">
+        <v>960.854936719311</v>
+      </c>
+      <c r="S25">
+        <v>0.002300543084128332</v>
+      </c>
+      <c r="T25">
+        <v>0.002300543084128331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H26">
+        <v>151.08959</v>
+      </c>
+      <c r="I26">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J26">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.290396</v>
+      </c>
+      <c r="O26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P26">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q26">
+        <v>4.875090286404443</v>
+      </c>
+      <c r="R26">
+        <v>43.87581257764</v>
+      </c>
+      <c r="S26">
+        <v>0.0001050504018126173</v>
+      </c>
+      <c r="T26">
+        <v>0.0001050504018126173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H27">
+        <v>151.08959</v>
+      </c>
+      <c r="I27">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J27">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.133268</v>
+      </c>
+      <c r="O27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P27">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q27">
+        <v>2.237267497791111</v>
+      </c>
+      <c r="R27">
+        <v>20.13540748012</v>
+      </c>
+      <c r="S27">
+        <v>4.820953783373009E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.820953783373007E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H28">
+        <v>151.08959</v>
+      </c>
+      <c r="I28">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J28">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N28">
+        <v>182.872494</v>
+      </c>
+      <c r="O28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P28">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q28">
+        <v>3070.014460081939</v>
+      </c>
+      <c r="R28">
+        <v>27630.13014073746</v>
+      </c>
+      <c r="S28">
+        <v>0.0661539035495511</v>
+      </c>
+      <c r="T28">
+        <v>0.06615390354955109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H29">
+        <v>151.08959</v>
+      </c>
+      <c r="I29">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J29">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N29">
+        <v>246.670944</v>
+      </c>
+      <c r="O29">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P29">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q29">
+        <v>4141.045754874774</v>
+      </c>
+      <c r="R29">
+        <v>37269.41179387296</v>
+      </c>
+      <c r="S29">
+        <v>0.08923291568305906</v>
+      </c>
+      <c r="T29">
+        <v>0.08923291568305904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H30">
+        <v>151.08959</v>
+      </c>
+      <c r="I30">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J30">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N30">
+        <v>190.187122</v>
+      </c>
+      <c r="O30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P30">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q30">
+        <v>3192.810476251108</v>
+      </c>
+      <c r="R30">
+        <v>28735.29428625998</v>
+      </c>
+      <c r="S30">
+        <v>0.06879996138268181</v>
+      </c>
+      <c r="T30">
+        <v>0.06879996138268178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>50.36319666666666</v>
+      </c>
+      <c r="H31">
+        <v>151.08959</v>
+      </c>
+      <c r="I31">
+        <v>0.2261068191162822</v>
+      </c>
+      <c r="J31">
+        <v>0.2261068191162821</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N31">
+        <v>4.883993</v>
+      </c>
+      <c r="O31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P31">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q31">
+        <v>81.99116665920776</v>
+      </c>
+      <c r="R31">
+        <v>737.92049993287</v>
+      </c>
+      <c r="S31">
+        <v>0.001766778561343855</v>
+      </c>
+      <c r="T31">
+        <v>0.001766778561343855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H32">
+        <v>0.078905</v>
+      </c>
+      <c r="I32">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J32">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.09679866666666666</v>
+      </c>
+      <c r="N32">
+        <v>0.290396</v>
+      </c>
+      <c r="O32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="P32">
+        <v>0.0004646051906934836</v>
+      </c>
+      <c r="Q32">
+        <v>0.002545966264444444</v>
+      </c>
+      <c r="R32">
+        <v>0.02291369638</v>
+      </c>
+      <c r="S32">
+        <v>5.486150273506314E-08</v>
+      </c>
+      <c r="T32">
+        <v>5.486150273506312E-08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H33">
+        <v>0.078905</v>
+      </c>
+      <c r="I33">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J33">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.04442266666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.133268</v>
+      </c>
+      <c r="O33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="P33">
+        <v>0.0002132157624531301</v>
+      </c>
+      <c r="Q33">
+        <v>0.001168390171111111</v>
+      </c>
+      <c r="R33">
+        <v>0.01051551154</v>
+      </c>
+      <c r="S33">
+        <v>2.517694026948165E-08</v>
+      </c>
+      <c r="T33">
+        <v>2.517694026948165E-08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H34">
+        <v>0.078905</v>
+      </c>
+      <c r="I34">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J34">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>60.95749799999999</v>
+      </c>
+      <c r="N34">
+        <v>182.872494</v>
+      </c>
+      <c r="O34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="P34">
+        <v>0.2925781000683995</v>
+      </c>
+      <c r="Q34">
+        <v>1.60328379323</v>
+      </c>
+      <c r="R34">
+        <v>14.42955413907</v>
+      </c>
+      <c r="S34">
+        <v>3.454820255702151E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.454820255702149E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H35">
+        <v>0.078905</v>
+      </c>
+      <c r="I35">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J35">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>82.22364800000001</v>
+      </c>
+      <c r="N35">
+        <v>246.670944</v>
+      </c>
+      <c r="O35">
+        <v>0.3946493786955111</v>
+      </c>
+      <c r="P35">
+        <v>0.394649378695511</v>
+      </c>
+      <c r="Q35">
+        <v>2.162618981813334</v>
+      </c>
+      <c r="R35">
+        <v>19.46357083632</v>
+      </c>
+      <c r="S35">
+        <v>4.660098165579625E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.660098165579624E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H36">
+        <v>0.078905</v>
+      </c>
+      <c r="I36">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J36">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>63.39570733333333</v>
+      </c>
+      <c r="N36">
+        <v>190.187122</v>
+      </c>
+      <c r="O36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="P36">
+        <v>0.3042807892817216</v>
+      </c>
+      <c r="Q36">
+        <v>1.667412762378889</v>
+      </c>
+      <c r="R36">
+        <v>15.00671486141</v>
+      </c>
+      <c r="S36">
+        <v>3.593007931850572E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.593007931850571E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.02630166666666667</v>
+      </c>
+      <c r="H37">
+        <v>0.078905</v>
+      </c>
+      <c r="I37">
+        <v>0.0001180819840888459</v>
+      </c>
+      <c r="J37">
+        <v>0.0001180819840888458</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.627997666666667</v>
+      </c>
+      <c r="N37">
+        <v>4.883993</v>
+      </c>
+      <c r="O37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="P37">
+        <v>0.007813911001221226</v>
+      </c>
+      <c r="Q37">
+        <v>0.04281905196277778</v>
+      </c>
+      <c r="R37">
+        <v>0.385371467665</v>
+      </c>
+      <c r="S37">
+        <v>9.226821145178626E-07</v>
+      </c>
+      <c r="T37">
+        <v>9.226821145178624E-07</v>
       </c>
     </row>
   </sheetData>
